--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,40 +471,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Obeid Al Hamad</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Suad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.03.1978</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Syrien</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Remscheid</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Mahmoud</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Maha</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>25.05.1985</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Hasaka</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Baash</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Suad</t>
+          <t>Amar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10.03.1978</t>
+          <t>23.01.1991</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Syrien</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -513,40 +513,82 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Obeid Al Hamad</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Suad</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.03.1978</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Syrien</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Remscheid</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Mahmoud</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Maha</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>25.05.1985</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Hasaka</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baash</t>
+          <t>Kuke</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amar</t>
+          <t>Ibrahim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23.01.1991</t>
+          <t>08.06.1989</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,22 +513,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Baash</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Suad</t>
+          <t>Amar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.03.1978</t>
+          <t>23.01.1991</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Syrien</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,12 +538,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -555,40 +555,82 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Obeid Al Hamad</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suad</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.03.1978</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Syrien</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Remscheid</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Mahmoud</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Maha</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>25.05.1985</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Hasaka</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kuke</t>
+          <t>Alesa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ibrahim</t>
+          <t>Feras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08.06.1989</t>
+          <t>01.01.1991</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Syrien</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -513,17 +513,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baash</t>
+          <t>Kuke</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amar</t>
+          <t>Ibrahim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23.01.1991</t>
+          <t>08.06.1989</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -555,22 +555,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Baash</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Suad</t>
+          <t>Amar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10.03.1978</t>
+          <t>23.01.1991</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Syrien</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -580,12 +580,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -597,40 +597,82 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Obeid Al Hamad</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suad</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.03.1978</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Syrien</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Remscheid</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Mahmoud</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Maha</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>25.05.1985</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Hasaka</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alesa</t>
+          <t>Lulu</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Feras</t>
+          <t>Shadi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.01.1991</t>
+          <t>01.06.1992</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Syrien</t>
+          <t>DSCHISR ASCH-SCHUGHUR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -513,22 +513,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kuke</t>
+          <t>Alesa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ibrahim</t>
+          <t>Feras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08.06.1989</t>
+          <t>01.01.1991</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Syrien</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -555,17 +555,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baash</t>
+          <t>Kuke</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amar</t>
+          <t>Ibrahim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23.01.1991</t>
+          <t>08.06.1989</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -597,22 +597,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Baash</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Suad</t>
+          <t>Amar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10.03.1978</t>
+          <t>23.01.1991</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Syrien</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -622,12 +622,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -639,40 +639,82 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Obeid Al Hamad</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suad</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.03.1978</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Syrien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Remscheid</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Mahmoud</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Maha</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>25.05.1985</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Hasaka</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/None.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lulu</t>
+          <t>Jamal Eddin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shadi</t>
+          <t>Alaa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01.06.1992</t>
+          <t>01.01.1999</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DSCHISR ASCH-SCHUGHUR</t>
+          <t>Damaskus</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -513,22 +513,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alesa</t>
+          <t>Lulu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Feras</t>
+          <t>Shadi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01.01.1991</t>
+          <t>01.06.1992</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Syrien</t>
+          <t>DSCHISR ASCH-SCHUGHUR</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -555,22 +555,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kuke</t>
+          <t>Alesa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibrahim</t>
+          <t>Feras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08.06.1989</t>
+          <t>01.01.1991</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Syrien</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -597,17 +597,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baash</t>
+          <t>Kuke</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amar</t>
+          <t>Ibrahim</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23.01.1991</t>
+          <t>08.06.1989</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -639,22 +639,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Obeid Al Hamad</t>
+          <t>Baash</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Suad</t>
+          <t>Amar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10.03.1978</t>
+          <t>23.01.1991</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Syrien</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Remscheid</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -681,40 +681,82 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Obeid Al Hamad</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suad</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.03.1978</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Syrien</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Remscheid</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Mahmoud</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Maha</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>25.05.1985</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Hasaka</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
